--- a/stats/stats/actor_money.xlsx
+++ b/stats/stats/actor_money.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,81 +395,149 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10286</v>
+        <v>5000</v>
       </c>
       <c r="C2" t="n">
-        <v>10286</v>
+        <v>5000</v>
       </c>
       <c r="D2" t="n">
-        <v>10286</v>
+        <v>5000</v>
       </c>
       <c r="E2" t="n">
-        <v>10286</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>unique</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>638</v>
+        <v>10.47232</v>
       </c>
       <c r="C3" t="n">
-        <v>754</v>
+        <v>858.3727</v>
       </c>
       <c r="D3" t="n">
-        <v>609</v>
+        <v>373.0933200000001</v>
       </c>
       <c r="E3" t="n">
-        <v>611</v>
+        <v>134.05604</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 81,2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 78,7</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 63,6</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 63,1</t>
-        </is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4.950748610054846</v>
+      </c>
+      <c r="C4" t="n">
+        <v>813.7120195664235</v>
+      </c>
+      <c r="D4" t="n">
+        <v>403.9466032126362</v>
+      </c>
+      <c r="E4" t="n">
+        <v>152.0488127800147</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>freq</t>
+          <t>min</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>534</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>930</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>851</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>628.1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>180.9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1547.175</v>
+      </c>
+      <c r="D8" t="n">
+        <v>638.2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>225.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2398.9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1291.7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>527.1</v>
       </c>
     </row>
   </sheetData>
